--- a/BOM_nRF51822.xlsx
+++ b/BOM_nRF51822.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="61">
   <si>
     <t>Qty</t>
   </si>
@@ -130,6 +130,75 @@
   </si>
   <si>
     <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?lang=en&amp;vendor=0&amp;WT.z_cid=ref_findchips0311_dkc_buynow&amp;mpart=BAT-HLD-001&amp;cur=USD</t>
+  </si>
+  <si>
+    <t>2450AT18B100E</t>
+  </si>
+  <si>
+    <t>ANT</t>
+  </si>
+  <si>
+    <t>609-2450AT18B100E</t>
+  </si>
+  <si>
+    <t>http://mx.mouser.com/search/ProductDetail.aspx?qs=yCnrNFeXz%252bh5MFsFIXGZGA==&amp;utm_source=findchips&amp;utm_medium=aggregator&amp;utm_campaign=609-2450AT18B100E&amp;utm_term=2450AT18B100</t>
+  </si>
+  <si>
+    <t>712-1006-1-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/2450AT18B100E/712-1006-1-ND/1560835</t>
+  </si>
+  <si>
+    <t>CHIP_ANTENNA</t>
+  </si>
+  <si>
+    <t>BAT165</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>BAT 165 E6327</t>
+  </si>
+  <si>
+    <t>726-BAT165E6327</t>
+  </si>
+  <si>
+    <t>http://mx.mouser.com/search/ProductDetail.aspx?qs=mzcOS1kGbgcQqWsJMFtrug==&amp;utm_source=findchips&amp;utm_medium=aggregator&amp;utm_campaign=726-BAT165E6327&amp;utm_term=BAT165</t>
+  </si>
+  <si>
+    <t>BAT 165 E6327CT-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/BAT%20165%20E6327/BAT%20165%20E6327CT-ND/3819504</t>
+  </si>
+  <si>
+    <t>BALUM</t>
+  </si>
+  <si>
+    <t>2450BM14A0002T</t>
+  </si>
+  <si>
+    <t>609-2450BM14A0002T</t>
+  </si>
+  <si>
+    <t>http://mx.mouser.com/search/ProductDetail.aspx?qs=yCnrNFeXz%252bjc2NrpGmrycg==&amp;utm_source=findchips&amp;utm_medium=aggregator&amp;utm_campaign=609-2450BM14A0002T&amp;utm_term=2450BM14A0002</t>
+  </si>
+  <si>
+    <t>SWITCH</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>SKQGADE010</t>
+  </si>
+  <si>
+    <t>688-SKQGAD</t>
+  </si>
+  <si>
+    <t>http://mx.mouser.com/search/ProductDetail.aspx?qs=N5Jky1br14PCAY42dbciFw==&amp;utm_source=findchips&amp;utm_medium=aggregator&amp;utm_campaign=688-SKQGAD&amp;utm_term=SKQGADE010</t>
   </si>
 </sst>
 </file>
@@ -190,14 +259,14 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -500,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:M10"/>
+  <dimension ref="B3:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,56 +589,56 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -595,13 +664,13 @@
       <c r="H5" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>1674</v>
       </c>
       <c r="J5">
         <v>1.62</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="M5" t="s">
@@ -618,13 +687,13 @@
       <c r="H6" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>1759</v>
       </c>
       <c r="J6">
         <v>2.54</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="M6" t="s">
@@ -641,13 +710,13 @@
       <c r="H7" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <v>3766</v>
       </c>
       <c r="J7">
         <v>3.65</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="M7" t="s">
@@ -676,13 +745,13 @@
       <c r="H8" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <v>19369</v>
       </c>
       <c r="J8">
         <v>0.32</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="3" t="s">
         <v>32</v>
       </c>
       <c r="M8" t="s">
@@ -699,13 +768,13 @@
       <c r="H9" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <v>26890</v>
       </c>
       <c r="J9">
         <v>0.35099999999999998</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="3" t="s">
         <v>35</v>
       </c>
       <c r="M9" t="s">
@@ -722,16 +791,202 @@
       <c r="H10" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <v>37903</v>
       </c>
       <c r="J10">
         <v>0.27</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="3" t="s">
         <v>37</v>
       </c>
       <c r="M10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="4">
+        <v>5517</v>
+      </c>
+      <c r="J11">
+        <v>1.21</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="4">
+        <v>10828</v>
+      </c>
+      <c r="J12">
+        <v>0.94</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="4">
+        <v>9000</v>
+      </c>
+      <c r="J13">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1619</v>
+      </c>
+      <c r="J14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="4">
+        <v>3773</v>
+      </c>
+      <c r="J15">
+        <v>1.91</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" s="4">
+        <v>642</v>
+      </c>
+      <c r="J16">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M16" t="s">
         <v>27</v>
       </c>
     </row>
@@ -746,6 +1001,12 @@
     <hyperlink ref="L8" r:id="rId4"/>
     <hyperlink ref="L9" r:id="rId5"/>
     <hyperlink ref="L10" r:id="rId6"/>
+    <hyperlink ref="L11" r:id="rId7"/>
+    <hyperlink ref="L12" r:id="rId8"/>
+    <hyperlink ref="L13" r:id="rId9"/>
+    <hyperlink ref="L14" r:id="rId10"/>
+    <hyperlink ref="L15" r:id="rId11"/>
+    <hyperlink ref="L16" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BOM_nRF51822.xlsx
+++ b/BOM_nRF51822.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="78">
   <si>
     <t>Qty</t>
   </si>
@@ -199,6 +199,57 @@
   </si>
   <si>
     <t>http://mx.mouser.com/search/ProductDetail.aspx?qs=N5Jky1br14PCAY42dbciFw==&amp;utm_source=findchips&amp;utm_medium=aggregator&amp;utm_campaign=688-SKQGAD&amp;utm_term=SKQGADE010</t>
+  </si>
+  <si>
+    <t>CON_PROG</t>
+  </si>
+  <si>
+    <t>GRPB052VWQS-RC</t>
+  </si>
+  <si>
+    <t>S9012E-05-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/GRPB052VWQS-RC/S9012E-05-ND/1786414</t>
+  </si>
+  <si>
+    <t>M50-3600542</t>
+  </si>
+  <si>
+    <t>855-M50-3600542</t>
+  </si>
+  <si>
+    <t>http://mx.mouser.com/ProductDetail/Harwin/M50-3600542/?qs=sGAEpiMZZMs%252bGHln7q6pmwGlxKXpENpez3VqrHB%252bE4Q%3d</t>
+  </si>
+  <si>
+    <t>952-1389-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?lang=en&amp;vendor=0&amp;WT.z_cid=ref_findchips0311_dkc_buynow&amp;mpart=M50-3600542&amp;cur=USD</t>
+  </si>
+  <si>
+    <t>20021121-00010C4LF</t>
+  </si>
+  <si>
+    <t>649-202112100010C4LF</t>
+  </si>
+  <si>
+    <t>http://mx.mouser.com/ProductDetail/FCI/20021121-00010C4LF/?qs=sGAEpiMZZMs%252bGHln7q6pmzWpWpY27fVZyi7FH9rUFyQ%3d</t>
+  </si>
+  <si>
+    <t>609-3695-1-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/20021121-00010C4LF/609-3695-1-ND/2209147</t>
+  </si>
+  <si>
+    <t>535-9810-1-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/ABM10-16.000MHZ-E20-T/535-9810-1-ND/2001433</t>
+  </si>
+  <si>
+    <t>10pF vs 8pF</t>
   </si>
 </sst>
 </file>
@@ -229,7 +280,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,6 +290,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,7 +319,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -267,6 +330,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -569,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:M16"/>
+  <dimension ref="B3:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,7 +654,7 @@
     <col min="9" max="9" width="10.7109375" customWidth="1"/>
     <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+    <col min="12" max="13" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
@@ -655,301 +724,298 @@
       <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="7">
         <v>1674</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="6">
         <v>1.62</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="K5" s="6"/>
+      <c r="L5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F6" t="s">
+      <c r="F6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="10">
         <v>1759</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="9">
         <v>2.54</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="K6" s="9"/>
+      <c r="L6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="M6" t="s">
-        <v>27</v>
+      <c r="M6" s="9" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F7" t="s">
+      <c r="F7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="10">
+        <v>3243</v>
+      </c>
+      <c r="J7" s="9">
+        <v>2.44</v>
+      </c>
+      <c r="K7" s="9"/>
+      <c r="L7" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
         <v>24</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G8" t="s">
         <v>21</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H8" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I8" s="4">
         <v>3766</v>
       </c>
-      <c r="J7">
+      <c r="J8">
         <v>3.65</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8">
+      <c r="M8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>28</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>29</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>30</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I9" s="7">
         <v>19369</v>
       </c>
-      <c r="J8">
+      <c r="J9" s="6">
         <v>0.32</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="K9" s="6"/>
+      <c r="L9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F9" t="s">
+      <c r="M9" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H10" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I10" s="10">
         <v>26890</v>
       </c>
-      <c r="J9">
+      <c r="J10" s="9">
         <v>0.35099999999999998</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="K10" s="9"/>
+      <c r="L10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F10" t="s">
+      <c r="M10" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I11" s="10">
         <v>37903</v>
       </c>
-      <c r="J10">
+      <c r="J11" s="9">
         <v>0.27</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="K11" s="9"/>
+      <c r="L11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11">
+      <c r="M11" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>39</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>44</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>39</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I12" s="10">
         <v>5517</v>
       </c>
-      <c r="J11">
+      <c r="J12" s="9">
         <v>1.21</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="K12" s="9"/>
+      <c r="L12" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="M11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F12" t="s">
+      <c r="M12" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F13" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I13" s="10">
         <v>10828</v>
       </c>
-      <c r="J12">
+      <c r="J13" s="9">
         <v>0.94</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="K13" s="9"/>
+      <c r="L13" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="M12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13">
+      <c r="M13" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>1</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>45</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>45</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>46</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I14" s="7">
         <v>9000</v>
       </c>
-      <c r="J13">
+      <c r="J14" s="6">
         <v>0.70199999999999996</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="K14" s="6"/>
+      <c r="L14" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="M13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F14" t="s">
+      <c r="M14" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
         <v>47</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G15" t="s">
         <v>15</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H15" t="s">
         <v>50</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I15" s="4">
         <v>1619</v>
       </c>
-      <c r="J14">
+      <c r="J15">
         <v>0.55000000000000004</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="M14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" t="s">
-        <v>54</v>
-      </c>
-      <c r="I15" s="4">
-        <v>3773</v>
-      </c>
-      <c r="J15">
-        <v>1.91</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="M15" t="s">
         <v>27</v>
@@ -957,36 +1023,202 @@
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3773</v>
+      </c>
+      <c r="J16" s="6">
+        <v>1.91</v>
+      </c>
+      <c r="K16" s="6"/>
+      <c r="L16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17">
         <v>2</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>56</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>56</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>57</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F17" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H17" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I17" s="7">
         <v>642</v>
       </c>
-      <c r="J16">
+      <c r="J17" s="6">
         <v>0.92300000000000004</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="K17" s="6"/>
+      <c r="L17" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M17" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" s="4">
+        <v>14569</v>
+      </c>
+      <c r="J18">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F19" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" s="10">
+        <v>8296</v>
+      </c>
+      <c r="J19" s="9">
+        <v>1.98</v>
+      </c>
+      <c r="K19" s="9"/>
+      <c r="L19" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F20" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" s="10">
+        <v>5917</v>
+      </c>
+      <c r="J20" s="9">
+        <v>1.52</v>
+      </c>
+      <c r="K20" s="9"/>
+      <c r="L20" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21" s="4">
+        <v>6244</v>
+      </c>
+      <c r="J21">
+        <v>1.24</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" t="s">
+        <v>73</v>
+      </c>
+      <c r="I22" s="4">
+        <v>12947</v>
+      </c>
+      <c r="J22">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M22" t="s">
         <v>27</v>
       </c>
     </row>
@@ -997,16 +1229,22 @@
   <hyperlinks>
     <hyperlink ref="L5" r:id="rId1"/>
     <hyperlink ref="L6" r:id="rId2"/>
-    <hyperlink ref="L7" r:id="rId3"/>
-    <hyperlink ref="L8" r:id="rId4"/>
-    <hyperlink ref="L9" r:id="rId5"/>
-    <hyperlink ref="L10" r:id="rId6"/>
-    <hyperlink ref="L11" r:id="rId7"/>
-    <hyperlink ref="L12" r:id="rId8"/>
-    <hyperlink ref="L13" r:id="rId9"/>
-    <hyperlink ref="L14" r:id="rId10"/>
-    <hyperlink ref="L15" r:id="rId11"/>
-    <hyperlink ref="L16" r:id="rId12"/>
+    <hyperlink ref="L8" r:id="rId3"/>
+    <hyperlink ref="L9" r:id="rId4"/>
+    <hyperlink ref="L10" r:id="rId5"/>
+    <hyperlink ref="L11" r:id="rId6"/>
+    <hyperlink ref="L12" r:id="rId7"/>
+    <hyperlink ref="L13" r:id="rId8"/>
+    <hyperlink ref="L14" r:id="rId9"/>
+    <hyperlink ref="L15" r:id="rId10"/>
+    <hyperlink ref="L16" r:id="rId11"/>
+    <hyperlink ref="L17" r:id="rId12"/>
+    <hyperlink ref="L18" r:id="rId13"/>
+    <hyperlink ref="L19" r:id="rId14"/>
+    <hyperlink ref="L20" r:id="rId15"/>
+    <hyperlink ref="L21" r:id="rId16"/>
+    <hyperlink ref="L22" r:id="rId17"/>
+    <hyperlink ref="L7" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BOM_nRF51822.xlsx
+++ b/BOM_nRF51822.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="90">
   <si>
     <t>Qty</t>
   </si>
@@ -250,6 +250,42 @@
   </si>
   <si>
     <t>10pF vs 8pF</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>LED0603</t>
+  </si>
+  <si>
+    <t>LTST-C191KGKT</t>
+  </si>
+  <si>
+    <t>859-LTST-C191KGKT</t>
+  </si>
+  <si>
+    <t>http://mx.mouser.com/ProductDetail/Lite-On/LTST-C191KGKT/?qs=sGAEpiMZZMvyj6n1w4pZD5bVR4ADnAxiKQsvIF8o5%252bM%3d</t>
+  </si>
+  <si>
+    <t>160-1446-1-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/LTST-C191KGKT/160-1446-1-ND/386834?CSRT=11218342644866769398&amp;CSRT=15694167576893614483</t>
+  </si>
+  <si>
+    <t>TLMP1100-GS08</t>
+  </si>
+  <si>
+    <t>78-TLMP1100-GS08</t>
+  </si>
+  <si>
+    <t>http://mx.mouser.com/ProductDetail/Vishay-Semiconductors/TLMP1100-GS08/?qs=sGAEpiMZZMvyj6n1w4pZD8qSC%252bu6%252bar4jK8e76vB22s%3d</t>
+  </si>
+  <si>
+    <t>751-1176-1-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/TLMP1100-GS08/751-1176-1-ND/1681459?CSRT=11218342644866769398&amp;CSRT=15694167576893614483</t>
   </si>
 </sst>
 </file>
@@ -319,7 +355,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -327,15 +363,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -638,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:M22"/>
+  <dimension ref="B3:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,20 +697,20 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -724,74 +763,74 @@
       <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <v>1674</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>1.62</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="8" t="s">
+      <c r="K5" s="5"/>
+      <c r="L5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="9">
         <v>1759</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="8">
         <v>2.54</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="11" t="s">
+      <c r="K6" s="8"/>
+      <c r="L6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="9">
         <v>3243</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="8">
         <v>2.44</v>
       </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="11" t="s">
+      <c r="K7" s="8"/>
+      <c r="L7" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="8" t="s">
         <v>77</v>
       </c>
     </row>
@@ -831,74 +870,74 @@
       <c r="E9" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>19369</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>0.32</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="8" t="s">
+      <c r="K9" s="5"/>
+      <c r="L9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="9">
         <v>26890</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="8">
         <v>0.35099999999999998</v>
       </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="11" t="s">
+      <c r="K10" s="8"/>
+      <c r="L10" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="M10" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="9">
         <v>37903</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="8">
         <v>0.27</v>
       </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="11" t="s">
+      <c r="K11" s="8"/>
+      <c r="L11" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -915,50 +954,50 @@
       <c r="E12" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="9">
         <v>5517</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="8">
         <v>1.21</v>
       </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="11" t="s">
+      <c r="K12" s="8"/>
+      <c r="L12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="M12" s="9" t="s">
+      <c r="M12" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="9">
         <v>10828</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="8">
         <v>0.94</v>
       </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="11" t="s">
+      <c r="K13" s="8"/>
+      <c r="L13" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="M13" s="9" t="s">
+      <c r="M13" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -975,26 +1014,26 @@
       <c r="E14" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <v>9000</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="5">
         <v>0.70199999999999996</v>
       </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="8" t="s">
+      <c r="K14" s="5"/>
+      <c r="L14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M14" s="6" t="s">
+      <c r="M14" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1034,26 +1073,26 @@
       <c r="E16" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
         <v>3773</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="5">
         <v>1.91</v>
       </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="8" t="s">
+      <c r="K16" s="5"/>
+      <c r="L16" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="M16" s="6" t="s">
+      <c r="M16" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1070,26 +1109,26 @@
       <c r="E17" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <v>642</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="5">
         <v>0.92300000000000004</v>
       </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="8" t="s">
+      <c r="K17" s="5"/>
+      <c r="L17" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="M17" s="6" t="s">
+      <c r="M17" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1129,50 +1168,50 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="9">
         <v>8296</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="8">
         <v>1.98</v>
       </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="11" t="s">
+      <c r="K19" s="8"/>
+      <c r="L19" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="M19" s="9" t="s">
+      <c r="M19" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="9">
         <v>5917</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="8">
         <v>1.52</v>
       </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="11" t="s">
+      <c r="K20" s="8"/>
+      <c r="L20" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="M20" s="9" t="s">
+      <c r="M20" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1219,6 +1258,114 @@
         <v>74</v>
       </c>
       <c r="M22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23" s="9">
+        <v>51875</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0.156</v>
+      </c>
+      <c r="K23" s="8"/>
+      <c r="L23" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F24" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24" s="9">
+        <v>169248</v>
+      </c>
+      <c r="J24" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="K24" s="8"/>
+      <c r="L24" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F25" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I25" s="13">
+        <v>8302</v>
+      </c>
+      <c r="J25" s="12">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="K25" s="12"/>
+      <c r="L25" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F26" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="I26" s="13">
+        <v>24586</v>
+      </c>
+      <c r="J26" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="K26" s="12"/>
+      <c r="L26" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="M26" s="12" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1245,6 +1392,10 @@
     <hyperlink ref="L21" r:id="rId16"/>
     <hyperlink ref="L22" r:id="rId17"/>
     <hyperlink ref="L7" r:id="rId18"/>
+    <hyperlink ref="L23" r:id="rId19"/>
+    <hyperlink ref="L24" r:id="rId20"/>
+    <hyperlink ref="L25" r:id="rId21"/>
+    <hyperlink ref="L26" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BOM_nRF51822.xlsx
+++ b/BOM_nRF51822.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="95">
   <si>
     <t>Qty</t>
   </si>
@@ -192,15 +192,6 @@
     <t>SW</t>
   </si>
   <si>
-    <t>SKQGADE010</t>
-  </si>
-  <si>
-    <t>688-SKQGAD</t>
-  </si>
-  <si>
-    <t>http://mx.mouser.com/search/ProductDetail.aspx?qs=N5Jky1br14PCAY42dbciFw==&amp;utm_source=findchips&amp;utm_medium=aggregator&amp;utm_campaign=688-SKQGAD&amp;utm_term=SKQGADE010</t>
-  </si>
-  <si>
     <t>CON_PROG</t>
   </si>
   <si>
@@ -286,6 +277,30 @@
   </si>
   <si>
     <t>http://www.digikey.com/product-detail/en/TLMP1100-GS08/751-1176-1-ND/1681459?CSRT=11218342644866769398&amp;CSRT=15694167576893614483</t>
+  </si>
+  <si>
+    <t>BAT1</t>
+  </si>
+  <si>
+    <t>CR2032VP</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?lang=en&amp;vendor=0&amp;WT.z_cid=ref_findchips0311_dkc_buynow&amp;mpart=CR2032VP&amp;cur=USD</t>
+  </si>
+  <si>
+    <t>B3U-1000P</t>
+  </si>
+  <si>
+    <t>653-B3U-1000P</t>
+  </si>
+  <si>
+    <t>http://mx.mouser.com/search/ProductDetail.aspx?qs=AO7BQMcsEu4ip80xyf2FwA==&amp;utm_source=findchips&amp;utm_medium=aggregator&amp;utm_campaign=653-B3U-1000P&amp;utm_term=B3U-1000PSKQGAD&amp;utm_term=SKQGADE010</t>
+  </si>
+  <si>
+    <t>SW1020CT-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/B3U-1000P/SW1020CT-ND/1534357</t>
   </si>
 </sst>
 </file>
@@ -369,12 +384,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -677,16 +692,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:M26"/>
+  <dimension ref="B3:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="6" width="20.7109375" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.7109375" customWidth="1"/>
@@ -697,20 +713,20 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -807,7 +823,7 @@
         <v>23</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
@@ -818,7 +834,7 @@
         <v>15</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I7" s="9">
         <v>3243</v>
@@ -828,10 +844,10 @@
       </c>
       <c r="K7" s="8"/>
       <c r="L7" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
@@ -862,7 +878,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
         <v>29</v>
@@ -1110,262 +1126,320 @@
         <v>57</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="I17" s="6">
-        <v>642</v>
+        <v>23823</v>
       </c>
       <c r="J17" s="5">
-        <v>0.92300000000000004</v>
+        <v>1.34</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I18" s="12">
+        <v>44492</v>
+      </c>
+      <c r="J18" s="11">
+        <v>1.25</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s">
         <v>60</v>
       </c>
-      <c r="M17" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="I19" s="4">
+        <v>14569</v>
+      </c>
+      <c r="J19">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="L19" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" t="s">
-        <v>63</v>
-      </c>
-      <c r="I18" s="4">
-        <v>14569</v>
-      </c>
-      <c r="J18">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="M18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F19" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="I19" s="9">
-        <v>8296</v>
-      </c>
-      <c r="J19" s="8">
-        <v>1.98</v>
-      </c>
-      <c r="K19" s="8"/>
-      <c r="L19" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="M19" s="8" t="s">
+      <c r="M19" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F20" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9">
-        <v>5917</v>
+        <v>8296</v>
       </c>
       <c r="J20" s="8">
-        <v>1.52</v>
+        <v>1.98</v>
       </c>
       <c r="K20" s="8"/>
       <c r="L20" s="10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="M20" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F21" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" t="s">
-        <v>71</v>
-      </c>
-      <c r="I21" s="4">
-        <v>6244</v>
-      </c>
-      <c r="J21">
-        <v>1.24</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="M21" t="s">
+      <c r="F21" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" s="9">
+        <v>5917</v>
+      </c>
+      <c r="J21" s="8">
+        <v>1.52</v>
+      </c>
+      <c r="K21" s="8"/>
+      <c r="L21" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="M21" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22" s="4">
+        <v>6244</v>
+      </c>
+      <c r="J22">
+        <v>1.24</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="M22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" t="s">
         <v>70</v>
       </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" t="s">
-        <v>73</v>
-      </c>
-      <c r="I22" s="4">
+      <c r="I23" s="4">
         <v>12947</v>
       </c>
-      <c r="J22">
+      <c r="J23">
         <v>1.1299999999999999</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="M22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23">
+      <c r="L23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24">
         <v>2</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="I23" s="9">
+      <c r="I24" s="9">
         <v>51875</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J24" s="8">
         <v>0.156</v>
-      </c>
-      <c r="K23" s="8"/>
-      <c r="L23" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F24" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="I24" s="9">
-        <v>169248</v>
-      </c>
-      <c r="J24" s="8">
-        <v>0.32</v>
       </c>
       <c r="K24" s="8"/>
       <c r="L24" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F25" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I25" s="9">
+        <v>169248</v>
+      </c>
+      <c r="J25" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="K25" s="8"/>
+      <c r="L25" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F26" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I26" s="12">
+        <v>8302</v>
+      </c>
+      <c r="J26" s="11">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="K26" s="11"/>
+      <c r="L26" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="M24" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F25" s="12" t="s">
+      <c r="M26" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F27" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="G25" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="12" t="s">
+      <c r="I27" s="12">
+        <v>24586</v>
+      </c>
+      <c r="J27" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="K27" s="11"/>
+      <c r="L27" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="I25" s="13">
-        <v>8302</v>
-      </c>
-      <c r="J25" s="12">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="K25" s="12"/>
-      <c r="L25" s="14" t="s">
+      <c r="M27" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" t="s">
         <v>87</v>
       </c>
-      <c r="M25" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F26" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G26" s="12" t="s">
+      <c r="E28" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="12" t="s">
+      <c r="H28" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="I26" s="13">
-        <v>24586</v>
-      </c>
-      <c r="J26" s="12">
-        <v>0.6</v>
-      </c>
-      <c r="K26" s="12"/>
-      <c r="L26" s="14" t="s">
+      <c r="I28" s="4">
+        <v>255106</v>
+      </c>
+      <c r="J28" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="L28" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="M26" s="12" t="s">
+      <c r="M28" s="11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1386,16 +1460,18 @@
     <hyperlink ref="L15" r:id="rId10"/>
     <hyperlink ref="L16" r:id="rId11"/>
     <hyperlink ref="L17" r:id="rId12"/>
-    <hyperlink ref="L18" r:id="rId13"/>
-    <hyperlink ref="L19" r:id="rId14"/>
-    <hyperlink ref="L20" r:id="rId15"/>
-    <hyperlink ref="L21" r:id="rId16"/>
-    <hyperlink ref="L22" r:id="rId17"/>
+    <hyperlink ref="L19" r:id="rId13"/>
+    <hyperlink ref="L20" r:id="rId14"/>
+    <hyperlink ref="L21" r:id="rId15"/>
+    <hyperlink ref="L22" r:id="rId16"/>
+    <hyperlink ref="L23" r:id="rId17"/>
     <hyperlink ref="L7" r:id="rId18"/>
-    <hyperlink ref="L23" r:id="rId19"/>
-    <hyperlink ref="L24" r:id="rId20"/>
-    <hyperlink ref="L25" r:id="rId21"/>
-    <hyperlink ref="L26" r:id="rId22"/>
+    <hyperlink ref="L24" r:id="rId19"/>
+    <hyperlink ref="L25" r:id="rId20"/>
+    <hyperlink ref="L26" r:id="rId21"/>
+    <hyperlink ref="L27" r:id="rId22"/>
+    <hyperlink ref="L28" r:id="rId23"/>
+    <hyperlink ref="L18" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BOM_nRF51822.xlsx
+++ b/BOM_nRF51822.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Lista Materiales Sugeridos" sheetId="1" r:id="rId1"/>
+    <sheet name="BOM_EAGLE" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="186">
   <si>
     <t>Qty</t>
   </si>
@@ -301,13 +301,286 @@
   </si>
   <si>
     <t>http://www.digikey.com/product-detail/en/B3U-1000P/SW1020CT-ND/1534357</t>
+  </si>
+  <si>
+    <t>LED1, LED2</t>
+  </si>
+  <si>
+    <t>0.1uF</t>
+  </si>
+  <si>
+    <t>CAP0603-CAP</t>
+  </si>
+  <si>
+    <t>1nF</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>2.2nF</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>4.7uF</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>10uH</t>
+  </si>
+  <si>
+    <t>INDUCTOR0603</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>12K</t>
+  </si>
+  <si>
+    <t>RESISTOR0603-RES</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>12pF</t>
+  </si>
+  <si>
+    <t>C7, C8</t>
+  </si>
+  <si>
+    <t>15nH</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>20mm coincell</t>
+  </si>
+  <si>
+    <t>BATTERY20MM_4LEGS_OVERPASTE</t>
+  </si>
+  <si>
+    <t>BATT</t>
+  </si>
+  <si>
+    <t>47nF</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>R2, R3</t>
+  </si>
+  <si>
+    <t>ANTENA-2450AT</t>
+  </si>
+  <si>
+    <t>BALUN-2450BM</t>
+  </si>
+  <si>
+    <t>BLN</t>
+  </si>
+  <si>
+    <t>DIODESOD</t>
+  </si>
+  <si>
+    <t>CRYSTAL2.5X2</t>
+  </si>
+  <si>
+    <t>XT</t>
+  </si>
+  <si>
+    <t>JUMP_SMD</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>NRF51822</t>
+  </si>
+  <si>
+    <t>PIN_HEADER_IO</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>PROG-JLINK-SEAGGER</t>
+  </si>
+  <si>
+    <t>PROG</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>SWITCH_SMD_BB</t>
+  </si>
+  <si>
+    <t>Comunicaciones</t>
+  </si>
+  <si>
+    <t>Mouser Part</t>
+  </si>
+  <si>
+    <t>SW1, SW2</t>
+  </si>
+  <si>
+    <t>M20-8760342</t>
+  </si>
+  <si>
+    <t>855-M20-8760342</t>
+  </si>
+  <si>
+    <t>http://mx.mouser.com/search/ProductDetail.aspx?qs=%252bk6/5FB6qrknCN2PEWncYw==&amp;utm_source=findchips&amp;utm_medium=aggregator&amp;utm_campaign=855-M20-8760342&amp;utm_term=M20-876</t>
+  </si>
+  <si>
+    <t>JUMPER</t>
+  </si>
+  <si>
+    <t>M20-1060200</t>
+  </si>
+  <si>
+    <t>855-M20-1060200</t>
+  </si>
+  <si>
+    <t>http://mx.mouser.com/ProductDetail/Harwin/M20-1060200/?qs=%2fha2pyFadugk1b9G9FjqOOaWFROvtsP6MqOWqaBasu2BVVtuX7YejA%3d%3d</t>
+  </si>
+  <si>
+    <t>C1608X7R1H104K</t>
+  </si>
+  <si>
+    <t>810-C1608X7R1H104K</t>
+  </si>
+  <si>
+    <t>http://mx.mouser.com/ProductDetail/TDK/C1608X7R1H104K/?qs=sGAEpiMZZMvQvaS66kI3TvHonbvhj0AsNgPMHD0N7kQ%3d</t>
+  </si>
+  <si>
+    <t>GRM1885C1H102FA01D</t>
+  </si>
+  <si>
+    <t>81-GRM1885C1H102FA1D</t>
+  </si>
+  <si>
+    <t>http://mx.mouser.com/ProductDetail/Murata-Electronics/GRM1885C1H102FA01D/?qs=sGAEpiMZZMvQvaS66kI3TjJ%252bcXsmmodphEmOlvQCCYw%3d</t>
+  </si>
+  <si>
+    <t>C1608X5R1H105K</t>
+  </si>
+  <si>
+    <t>810-C1608X5R1H105K</t>
+  </si>
+  <si>
+    <t>http://mx.mouser.com/ProductDetail/TDK/C1608X5R1H105K/?qs=sGAEpiMZZMvQvaS66kI3Tkwgp26A56%252bLSrPXw2NkTZ8%3d</t>
+  </si>
+  <si>
+    <t>C1608X5R1E475K</t>
+  </si>
+  <si>
+    <t>810-C1608X5R1E475K</t>
+  </si>
+  <si>
+    <t>http://mx.mouser.com/ProductDetail/TDK/C1608X5R1E475K/?qs=sGAEpiMZZMvQvaS66kI3ThUn76Ya%2fK0CdXHJdU5eGb8%3d</t>
+  </si>
+  <si>
+    <t>C1608X5R1A106M</t>
+  </si>
+  <si>
+    <t>810-C1608X5R1A106M</t>
+  </si>
+  <si>
+    <t>http://mx.mouser.com/ProductDetail/TDK/C1608X5R1A106M/?qs=sGAEpiMZZMvQvaS66kI3Tkwgp26A56%252bLBNXgpuf8mYk%3d</t>
+  </si>
+  <si>
+    <t>GRM1885C1H222JA01D</t>
+  </si>
+  <si>
+    <t>81-GRM1885C1H222JA01</t>
+  </si>
+  <si>
+    <t>http://mx.mouser.com/ProductDetail/Murata-Electronics/GRM1885C1H222JA01D/?qs=sGAEpiMZZMvQvaS66kI3TrKBrwUfZs%2fu6%2f7g4Bigjk0%3d</t>
+  </si>
+  <si>
+    <t>06035A120FAT2A</t>
+  </si>
+  <si>
+    <t>581-06035A120FAT2A</t>
+  </si>
+  <si>
+    <t>http://mx.mouser.com/ProductDetail/AVX/06035A120FAT2A/?qs=sGAEpiMZZMvQvaS66kI3TuJNZP7N%2frrFPmc90h0sF80%3d</t>
+  </si>
+  <si>
+    <t>GRM188R71H473KA61D</t>
+  </si>
+  <si>
+    <t>81-GRM188R71H473KA61</t>
+  </si>
+  <si>
+    <t>http://mx.mouser.com/ProductDetail/Murata-Electronics/GRM188R71H473KA61D/?qs=sGAEpiMZZMvQvaS66kI3TtvaO3qMY03j%252bGKDBnq2lJ4%3d</t>
+  </si>
+  <si>
+    <t>C10, C11, C3, C6</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF1000V</t>
+  </si>
+  <si>
+    <t>667-ERJ-3EKF1000V</t>
+  </si>
+  <si>
+    <t>http://mx.mouser.com/ProductDetail/Panasonic/ERJ-3EKF1000V/?qs=%2fha2pyFaduglTbPDDZSypXi%252b1JYi5TJRT2R7dib9ms%2f8H45gLlep%2fg%3d%3d</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF1202V</t>
+  </si>
+  <si>
+    <t>667-ERJ-3EKF1202V</t>
+  </si>
+  <si>
+    <t>http://mx.mouser.com/ProductDetail/Panasonic-Electronic-Components/ERJ-3EKF1202V/?qs=sGAEpiMZZMu61qfTUdNhG6gKAQVNBKOoysG8AtQw9oY%3d</t>
+  </si>
+  <si>
+    <t>BRL1608T100M</t>
+  </si>
+  <si>
+    <t>963-BRL1608T100M</t>
+  </si>
+  <si>
+    <t>http://mx.mouser.com/ProductDetail/Taiyo-Yuden/BRL1608T100M/?qs=sGAEpiMZZMsg%252by3WlYCkU5iuzh4MJmq0Z1iQdZKegDE%3d</t>
+  </si>
+  <si>
+    <t>LQW18AN15NJ00D</t>
+  </si>
+  <si>
+    <t>81-LQW18AN15NJ00D</t>
+  </si>
+  <si>
+    <t>http://mx.mouser.com/ProductDetail/Murata-Electronics/LQW18AN15NJ00D/?qs=sGAEpiMZZMsg%252by3WlYCkU7L%2fDDx1x9RvBGpgFLhMLgU%3d</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,8 +603,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,6 +635,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -370,7 +655,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -389,6 +674,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -694,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20:M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,20 +1019,20 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -1479,13 +1785,883 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="7" width="23.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+    </row>
+    <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="15">
+        <v>2</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="12">
+        <v>51875</v>
+      </c>
+      <c r="I4" s="11">
+        <v>0.156</v>
+      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="15">
+        <v>4</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="H5" s="12">
+        <v>226104</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="15">
+        <v>1</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="H6" s="12">
+        <v>154885</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0.13</v>
+      </c>
+      <c r="J6" s="11"/>
+      <c r="K6" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="15">
+        <v>1</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="H7" s="12">
+        <v>57892</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0.39</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="15">
+        <v>1</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="H8" s="12">
+        <v>74134</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0.156</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="15">
+        <v>1</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="H9" s="12">
+        <v>9596</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0.26</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="15">
+        <v>1</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="H10" s="12">
+        <v>178203</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="15">
+        <v>1</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="H11" s="12">
+        <v>17459</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="J11" s="11"/>
+      <c r="K11" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="15">
+        <v>1</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="H12" s="12">
+        <v>63455</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0.104</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="15">
+        <v>2</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="H13" s="12">
+        <v>7290</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0.39</v>
+      </c>
+      <c r="J13" s="11"/>
+      <c r="K13" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="15">
+        <v>1</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="H14" s="12">
+        <v>6974</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="J14" s="11"/>
+      <c r="K14" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="12">
+        <v>26890</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="J15" s="11"/>
+      <c r="K15" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="15">
+        <v>1</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="H16" s="12">
+        <v>247696</v>
+      </c>
+      <c r="I16" s="11">
+        <v>0.156</v>
+      </c>
+      <c r="J16" s="11"/>
+      <c r="K16" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="15">
+        <v>2</v>
+      </c>
+      <c r="C17" s="17">
+        <v>100</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="H17" s="12">
+        <v>88248</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0.104</v>
+      </c>
+      <c r="J17" s="11"/>
+      <c r="K17" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="15">
+        <v>1</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="12">
+        <v>5517</v>
+      </c>
+      <c r="I18" s="11">
+        <v>1.21</v>
+      </c>
+      <c r="J18" s="11"/>
+      <c r="K18" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="15">
+        <v>1</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="12">
+        <v>3773</v>
+      </c>
+      <c r="I19" s="11">
+        <v>1.91</v>
+      </c>
+      <c r="J19" s="11"/>
+      <c r="K19" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="15">
+        <v>1</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="12">
+        <v>9000</v>
+      </c>
+      <c r="I20" s="11">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="J20" s="11"/>
+      <c r="K20" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="15">
+        <v>1</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="12">
+        <v>1759</v>
+      </c>
+      <c r="I21" s="11">
+        <v>2.54</v>
+      </c>
+      <c r="J21" s="11"/>
+      <c r="K21" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="15">
+        <v>1</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="H22" s="12">
+        <v>2109</v>
+      </c>
+      <c r="I22" s="11">
+        <v>1.05</v>
+      </c>
+      <c r="J22" s="11"/>
+      <c r="K22" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="15">
+        <v>1</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+    </row>
+    <row r="24" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="15">
+        <v>1</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" s="12">
+        <v>8296</v>
+      </c>
+      <c r="I24" s="11">
+        <v>1.98</v>
+      </c>
+      <c r="J24" s="11"/>
+      <c r="K24" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="15">
+        <v>1</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" s="12">
+        <v>8296</v>
+      </c>
+      <c r="I25" s="11">
+        <v>1.98</v>
+      </c>
+      <c r="J25" s="11"/>
+      <c r="K25" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="15">
+        <v>2</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" s="12">
+        <v>23823</v>
+      </c>
+      <c r="I26" s="11">
+        <v>1.34</v>
+      </c>
+      <c r="J26" s="11"/>
+      <c r="K26" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="15">
+        <v>1</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="H27" s="12">
+        <v>7540</v>
+      </c>
+      <c r="I27" s="11">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="J27" s="11"/>
+      <c r="K27" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:L2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K4" r:id="rId1"/>
+    <hyperlink ref="K15" r:id="rId2"/>
+    <hyperlink ref="K18" r:id="rId3"/>
+    <hyperlink ref="K19" r:id="rId4"/>
+    <hyperlink ref="K20" r:id="rId5"/>
+    <hyperlink ref="K21" r:id="rId6"/>
+    <hyperlink ref="K26" r:id="rId7"/>
+    <hyperlink ref="K25" r:id="rId8"/>
+    <hyperlink ref="K24" r:id="rId9"/>
+    <hyperlink ref="K22" r:id="rId10"/>
+    <hyperlink ref="K27" r:id="rId11"/>
+    <hyperlink ref="K5" r:id="rId12"/>
+    <hyperlink ref="K6" r:id="rId13"/>
+    <hyperlink ref="K7" r:id="rId14"/>
+    <hyperlink ref="K9" r:id="rId15"/>
+    <hyperlink ref="K10" r:id="rId16"/>
+    <hyperlink ref="K8" r:id="rId17"/>
+    <hyperlink ref="K13" r:id="rId18"/>
+    <hyperlink ref="K16" r:id="rId19"/>
+    <hyperlink ref="K17" r:id="rId20"/>
+    <hyperlink ref="K12" r:id="rId21"/>
+    <hyperlink ref="K11" r:id="rId22"/>
+    <hyperlink ref="K14" r:id="rId23"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId24"/>
 </worksheet>
 </file>
 

--- a/BOM_nRF51822.xlsx
+++ b/BOM_nRF51822.xlsx
@@ -363,9 +363,6 @@
     <t>12pF</t>
   </si>
   <si>
-    <t>C7, C8</t>
-  </si>
-  <si>
     <t>15nH</t>
   </si>
   <si>
@@ -456,15 +453,6 @@
     <t>JUMPER</t>
   </si>
   <si>
-    <t>M20-1060200</t>
-  </si>
-  <si>
-    <t>855-M20-1060200</t>
-  </si>
-  <si>
-    <t>http://mx.mouser.com/ProductDetail/Harwin/M20-1060200/?qs=%2fha2pyFadugk1b9G9FjqOOaWFROvtsP6MqOWqaBasu2BVVtuX7YejA%3d%3d</t>
-  </si>
-  <si>
     <t>C1608X7R1H104K</t>
   </si>
   <si>
@@ -574,6 +562,18 @@
   </si>
   <si>
     <t>http://mx.mouser.com/ProductDetail/Murata-Electronics/LQW18AN15NJ00D/?qs=sGAEpiMZZMsg%252by3WlYCkU7L%2fDDx1x9RvBGpgFLhMLgU%3d</t>
+  </si>
+  <si>
+    <t>C7, C8, C13, C14</t>
+  </si>
+  <si>
+    <t>969102-0000-DA</t>
+  </si>
+  <si>
+    <t>517-9691020000DA</t>
+  </si>
+  <si>
+    <t>http://mx.mouser.com/ProductDetail/3M/969102-0000-DA/?qs=%2fha2pyFadujUlFupQJMiMQTieFDewcdUFchgxILTnwa46lYbuxBcJQ%3d%3d</t>
   </si>
 </sst>
 </file>
@@ -678,14 +678,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -695,6 +689,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1019,20 +1019,20 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -1788,7 +1788,7 @@
   <dimension ref="B2:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1801,38 +1801,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
+      <c r="B2" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
     </row>
     <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="19" t="s">
+      <c r="C3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H3" s="14" t="s">
         <v>18</v>
@@ -1854,17 +1854,17 @@
       <c r="B4" s="15">
         <v>2</v>
       </c>
-      <c r="C4" s="17"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="18" t="s">
         <v>95</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="18" t="s">
         <v>78</v>
       </c>
       <c r="H4" s="12">
@@ -1885,20 +1885,20 @@
       <c r="B5" s="15">
         <v>4</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>96</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>150</v>
+      <c r="E5" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>146</v>
       </c>
       <c r="H5" s="12">
         <v>226104</v>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L5" s="11" t="s">
         <v>27</v>
@@ -1918,20 +1918,20 @@
       <c r="B6" s="15">
         <v>1</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>98</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>153</v>
+      <c r="F6" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>149</v>
       </c>
       <c r="H6" s="12">
         <v>154885</v>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="13" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L6" s="11" t="s">
         <v>27</v>
@@ -1951,20 +1951,20 @@
       <c r="B7" s="15">
         <v>1</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>100</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>156</v>
+      <c r="F7" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>152</v>
       </c>
       <c r="H7" s="12">
         <v>57892</v>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="13" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L7" s="11" t="s">
         <v>27</v>
@@ -1984,20 +1984,20 @@
       <c r="B8" s="15">
         <v>1</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>102</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>165</v>
+      <c r="F8" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>161</v>
       </c>
       <c r="H8" s="12">
         <v>74134</v>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="13" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L8" s="11" t="s">
         <v>27</v>
@@ -2017,20 +2017,20 @@
       <c r="B9" s="15">
         <v>1</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>104</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="F9" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>159</v>
+      <c r="F9" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>155</v>
       </c>
       <c r="H9" s="12">
         <v>9596</v>
@@ -2040,7 +2040,7 @@
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="13" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="L9" s="11" t="s">
         <v>27</v>
@@ -2050,20 +2050,20 @@
       <c r="B10" s="15">
         <v>1</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>106</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>162</v>
+      <c r="F10" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>158</v>
       </c>
       <c r="H10" s="12">
         <v>178203</v>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="13" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L10" s="11" t="s">
         <v>27</v>
@@ -2083,20 +2083,20 @@
       <c r="B11" s="15">
         <v>1</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>108</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>181</v>
+      <c r="F11" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>177</v>
       </c>
       <c r="H11" s="12">
         <v>17459</v>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="13" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L11" s="11" t="s">
         <v>27</v>
@@ -2116,20 +2116,20 @@
       <c r="B12" s="15">
         <v>1</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>111</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>178</v>
+      <c r="F12" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>174</v>
       </c>
       <c r="H12" s="12">
         <v>63455</v>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="13" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="L12" s="11" t="s">
         <v>27</v>
@@ -2147,22 +2147,22 @@
     </row>
     <row r="13" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="15">
-        <v>2</v>
-      </c>
-      <c r="C13" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>114</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="E13" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>168</v>
+      <c r="E13" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>164</v>
       </c>
       <c r="H13" s="12">
         <v>7290</v>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="13" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="L13" s="11" t="s">
         <v>27</v>
@@ -2182,20 +2182,20 @@
       <c r="B14" s="15">
         <v>1</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>116</v>
+      <c r="C14" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="E14" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>184</v>
+      <c r="E14" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>180</v>
       </c>
       <c r="H14" s="12">
         <v>6974</v>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="J14" s="11"/>
       <c r="K14" s="13" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L14" s="11" t="s">
         <v>27</v>
@@ -2215,16 +2215,16 @@
       <c r="B15" s="15">
         <v>1</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="E15" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="E15" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="18" t="s">
         <v>33</v>
       </c>
       <c r="G15" s="11" t="s">
@@ -2248,20 +2248,20 @@
       <c r="B16" s="15">
         <v>1</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>121</v>
+      <c r="C16" s="16" t="s">
+        <v>120</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="E16" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>171</v>
+      <c r="E16" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>167</v>
       </c>
       <c r="H16" s="12">
         <v>247696</v>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="13" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L16" s="11" t="s">
         <v>27</v>
@@ -2281,20 +2281,20 @@
       <c r="B17" s="15">
         <v>2</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="16">
         <v>100</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="E17" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>175</v>
+      <c r="E17" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>171</v>
       </c>
       <c r="H17" s="12">
         <v>88248</v>
@@ -2304,7 +2304,7 @@
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="13" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L17" s="11" t="s">
         <v>27</v>
@@ -2314,13 +2314,13 @@
       <c r="B18" s="15">
         <v>1</v>
       </c>
-      <c r="C18" s="17" t="s">
-        <v>124</v>
+      <c r="C18" s="16" t="s">
+        <v>123</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="E18" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="18" t="s">
         <v>39</v>
       </c>
       <c r="F18" s="11" t="s">
@@ -2347,14 +2347,14 @@
       <c r="B19" s="15">
         <v>1</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" s="18" t="s">
         <v>125</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>126</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>53</v>
@@ -2380,13 +2380,13 @@
       <c r="B20" s="15">
         <v>1</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="16" t="s">
         <v>45</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E20" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="18" t="s">
         <v>46</v>
       </c>
       <c r="F20" s="11" t="s">
@@ -2413,14 +2413,14 @@
       <c r="B21" s="15">
         <v>1</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" s="18" t="s">
         <v>128</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>129</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>20</v>
@@ -2439,27 +2439,27 @@
         <v>23</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="15">
         <v>1</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="D22" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="G22" s="18" t="s">
         <v>142</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>143</v>
       </c>
       <c r="H22" s="12">
         <v>2109</v>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="J22" s="11"/>
       <c r="K22" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L22" s="11" t="s">
         <v>27</v>
@@ -2479,14 +2479,14 @@
       <c r="B23" s="15">
         <v>1</v>
       </c>
-      <c r="C23" s="17" t="s">
-        <v>132</v>
+      <c r="C23" s="16" t="s">
+        <v>131</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>131</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -2500,14 +2500,14 @@
       <c r="B24" s="15">
         <v>1</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" s="18" t="s">
         <v>133</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>134</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>62</v>
@@ -2533,14 +2533,14 @@
       <c r="B25" s="15">
         <v>1</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" s="18" t="s">
         <v>135</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>136</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>62</v>
@@ -2566,14 +2566,14 @@
       <c r="B26" s="15">
         <v>2</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="D26" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>141</v>
+      <c r="E26" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>90</v>
@@ -2599,30 +2599,30 @@
       <c r="B27" s="15">
         <v>1</v>
       </c>
-      <c r="C27" s="17" t="s">
-        <v>145</v>
+      <c r="C27" s="16" t="s">
+        <v>144</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>147</v>
+        <v>144</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>184</v>
       </c>
       <c r="H27" s="12">
-        <v>7540</v>
+        <v>51541</v>
       </c>
       <c r="I27" s="11">
-        <v>0.20799999999999999</v>
+        <v>0.13</v>
       </c>
       <c r="J27" s="11"/>
       <c r="K27" s="13" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="L27" s="11" t="s">
         <v>27</v>

--- a/BOM_nRF51822.xlsx
+++ b/BOM_nRF51822.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="203">
   <si>
     <t>Qty</t>
   </si>
@@ -384,9 +384,6 @@
     <t>C4</t>
   </si>
   <si>
-    <t>R2, R3</t>
-  </si>
-  <si>
     <t>ANTENA-2450AT</t>
   </si>
   <si>
@@ -396,39 +393,21 @@
     <t>BLN</t>
   </si>
   <si>
-    <t>DIODESOD</t>
-  </si>
-  <si>
     <t>CRYSTAL2.5X2</t>
   </si>
   <si>
     <t>XT</t>
   </si>
   <si>
-    <t>JUMP_SMD</t>
-  </si>
-  <si>
-    <t>JP</t>
-  </si>
-  <si>
     <t>NRF51822</t>
   </si>
   <si>
-    <t>PIN_HEADER_IO</t>
-  </si>
-  <si>
-    <t>EXP</t>
-  </si>
-  <si>
     <t>PROG-JLINK-SEAGGER</t>
   </si>
   <si>
     <t>PROG</t>
   </si>
   <si>
-    <t>SW1</t>
-  </si>
-  <si>
     <t>SWITCH_SMD_BB</t>
   </si>
   <si>
@@ -441,15 +420,6 @@
     <t>SW1, SW2</t>
   </si>
   <si>
-    <t>M20-8760342</t>
-  </si>
-  <si>
-    <t>855-M20-8760342</t>
-  </si>
-  <si>
-    <t>http://mx.mouser.com/search/ProductDetail.aspx?qs=%252bk6/5FB6qrknCN2PEWncYw==&amp;utm_source=findchips&amp;utm_medium=aggregator&amp;utm_campaign=855-M20-8760342&amp;utm_term=M20-876</t>
-  </si>
-  <si>
     <t>JUMPER</t>
   </si>
   <si>
@@ -528,15 +498,6 @@
     <t>C10, C11, C3, C6</t>
   </si>
   <si>
-    <t>ERJ-3EKF1000V</t>
-  </si>
-  <si>
-    <t>667-ERJ-3EKF1000V</t>
-  </si>
-  <si>
-    <t>http://mx.mouser.com/ProductDetail/Panasonic/ERJ-3EKF1000V/?qs=%2fha2pyFaduglTbPDDZSypXi%252b1JYi5TJRT2R7dib9ms%2f8H45gLlep%2fg%3d%3d</t>
-  </si>
-  <si>
     <t>ERJ-3EKF1202V</t>
   </si>
   <si>
@@ -567,20 +528,110 @@
     <t>C7, C8, C13, C14</t>
   </si>
   <si>
-    <t>969102-0000-DA</t>
-  </si>
-  <si>
-    <t>517-9691020000DA</t>
-  </si>
-  <si>
-    <t>http://mx.mouser.com/ProductDetail/3M/969102-0000-DA/?qs=%2fha2pyFadujUlFupQJMiMQTieFDewcdUFchgxILTnwa46lYbuxBcJQ%3d%3d</t>
+    <t>4.7K</t>
+  </si>
+  <si>
+    <t>R4, R5</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF4701V</t>
+  </si>
+  <si>
+    <t>667-ERJ-3EKF4701V</t>
+  </si>
+  <si>
+    <t>http://mx.mouser.com/ProductDetail/Panasonic/ERJ-3EKF4701V/?qs=sGAEpiMZZMu61qfTUdNhG6gKAQVNBKOonW3iBDX7kM4%3d</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>R7, R9</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF1002V</t>
+  </si>
+  <si>
+    <t>667-ERJ-3EKF1002V</t>
+  </si>
+  <si>
+    <t>http://mx.mouser.com/ProductDetail/Panasonic/ERJ-3EKF1002V/?qs=sGAEpiMZZMvdGkrng054tw5%2fFYq5P%2fDoCx9UR%2fAPDkE%3d</t>
+  </si>
+  <si>
+    <t>R2, R3, R6, R8</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF1500V</t>
+  </si>
+  <si>
+    <t>667-ERJ-3EKF1500V</t>
+  </si>
+  <si>
+    <t>http://mx.mouser.com/ProductDetail/Panasonic/ERJ-3EKF1500V/?qs=sGAEpiMZZMvdGkrng054t5J98uyV6qJ9ZdXNjSb2Hxw%3d</t>
+  </si>
+  <si>
+    <t>BC847</t>
+  </si>
+  <si>
+    <t>T1, T2</t>
+  </si>
+  <si>
+    <t>BC847BLT1G</t>
+  </si>
+  <si>
+    <t>863-BC847BLT1G</t>
+  </si>
+  <si>
+    <t>http://mx.mouser.com/ProductDetail/ON-Semiconductor/BC847BLT1G/?qs=sGAEpiMZZMutXGli8Ay4kJTaSFKHrKTH3eyTreBPDfo%3d</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>JUMP_SMDPITCH_0.05</t>
+  </si>
+  <si>
+    <t>JP1</t>
+  </si>
+  <si>
+    <t>CRYSTAL.ABS07</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>ABS07-32.768KHZ-9-T</t>
+  </si>
+  <si>
+    <t>815-ABS07-32.768K9T</t>
+  </si>
+  <si>
+    <t>http://mx.mouser.com/ProductDetail/ABRACON/ABS07-32768KHZ-9-T/?qs=%2fha2pyFadugUZqf%252bSy7w386cArsEV8eXB81IgGxGQRI%3d</t>
+  </si>
+  <si>
+    <t>VCC_PROG</t>
+  </si>
+  <si>
+    <t>JP2</t>
+  </si>
+  <si>
+    <t>http://mx.mouser.com/ProductDetail/Harwin/M50-1930005/?qs=%2fha2pyFaduhjObBwbdJMo5KAfYdR%252b2EFqiKNYE%2feekEnD%252bDyRA0s7g%3d%3d</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>M50-1900005</t>
+  </si>
+  <si>
+    <t>855-M50-1900005</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -608,6 +659,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -655,7 +714,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -696,6 +755,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1785,10 +1845,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L30"/>
+  <dimension ref="B2:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1802,7 +1862,7 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="21" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
@@ -1832,7 +1892,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H3" s="14" t="s">
         <v>18</v>
@@ -1873,7 +1933,10 @@
       <c r="I4" s="11">
         <v>0.156</v>
       </c>
-      <c r="J4" s="11"/>
+      <c r="J4" s="11">
+        <f>B4*I4</f>
+        <v>0.312</v>
+      </c>
       <c r="K4" s="13" t="s">
         <v>79</v>
       </c>
@@ -1892,13 +1955,13 @@
         <v>97</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="H5" s="12">
         <v>226104</v>
@@ -1906,9 +1969,12 @@
       <c r="I5" s="11">
         <v>0.20799999999999999</v>
       </c>
-      <c r="J5" s="11"/>
+      <c r="J5" s="11">
+        <f t="shared" ref="J5:J30" si="0">B5*I5</f>
+        <v>0.83199999999999996</v>
+      </c>
       <c r="K5" s="13" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="L5" s="11" t="s">
         <v>27</v>
@@ -1928,10 +1994,10 @@
         <v>99</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="H6" s="12">
         <v>154885</v>
@@ -1939,9 +2005,12 @@
       <c r="I6" s="11">
         <v>0.13</v>
       </c>
-      <c r="J6" s="11"/>
+      <c r="J6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.13</v>
+      </c>
       <c r="K6" s="13" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="L6" s="11" t="s">
         <v>27</v>
@@ -1961,10 +2030,10 @@
         <v>101</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="H7" s="12">
         <v>57892</v>
@@ -1972,9 +2041,12 @@
       <c r="I7" s="11">
         <v>0.39</v>
       </c>
-      <c r="J7" s="11"/>
+      <c r="J7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.39</v>
+      </c>
       <c r="K7" s="13" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="L7" s="11" t="s">
         <v>27</v>
@@ -1994,10 +2066,10 @@
         <v>103</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="H8" s="12">
         <v>74134</v>
@@ -2005,9 +2077,12 @@
       <c r="I8" s="11">
         <v>0.156</v>
       </c>
-      <c r="J8" s="11"/>
+      <c r="J8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.156</v>
+      </c>
       <c r="K8" s="13" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="L8" s="11" t="s">
         <v>27</v>
@@ -2015,32 +2090,35 @@
     </row>
     <row r="9" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="H9" s="12">
-        <v>9596</v>
+        <v>68593</v>
       </c>
       <c r="I9" s="11">
-        <v>0.26</v>
-      </c>
-      <c r="J9" s="11"/>
+        <v>0.104</v>
+      </c>
+      <c r="J9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.20799999999999999</v>
+      </c>
       <c r="K9" s="13" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="L9" s="11" t="s">
         <v>27</v>
@@ -2051,29 +2129,32 @@
         <v>1</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>97</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="H10" s="12">
-        <v>178203</v>
+        <v>9596</v>
       </c>
       <c r="I10" s="11">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="J10" s="11"/>
+        <v>0.26</v>
+      </c>
+      <c r="J10" s="11">
+        <f t="shared" si="0"/>
+        <v>0.26</v>
+      </c>
       <c r="K10" s="13" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="L10" s="11" t="s">
         <v>27</v>
@@ -2081,32 +2162,35 @@
     </row>
     <row r="11" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>108</v>
+        <v>175</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>110</v>
+        <v>176</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H11" s="12">
-        <v>17459</v>
+        <v>301704</v>
       </c>
       <c r="I11" s="11">
-        <v>0.40300000000000002</v>
-      </c>
-      <c r="J11" s="11"/>
+        <v>0.104</v>
+      </c>
+      <c r="J11" s="11">
+        <f t="shared" si="0"/>
+        <v>0.20799999999999999</v>
+      </c>
       <c r="K11" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L11" s="11" t="s">
         <v>27</v>
@@ -2117,29 +2201,32 @@
         <v>1</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="H12" s="12">
-        <v>63455</v>
+        <v>178203</v>
       </c>
       <c r="I12" s="11">
-        <v>0.104</v>
-      </c>
-      <c r="J12" s="11"/>
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="J12" s="11">
+        <f t="shared" si="0"/>
+        <v>0.71499999999999997</v>
+      </c>
       <c r="K12" s="13" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="L12" s="11" t="s">
         <v>27</v>
@@ -2147,16 +2234,16 @@
     </row>
     <row r="13" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>182</v>
+        <v>110</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>163</v>
@@ -2165,12 +2252,15 @@
         <v>164</v>
       </c>
       <c r="H13" s="12">
-        <v>7290</v>
+        <v>17459</v>
       </c>
       <c r="I13" s="11">
-        <v>0.39</v>
-      </c>
-      <c r="J13" s="11"/>
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="J13" s="11">
+        <f t="shared" si="0"/>
+        <v>0.40300000000000002</v>
+      </c>
       <c r="K13" s="13" t="s">
         <v>165</v>
       </c>
@@ -2183,29 +2273,32 @@
         <v>1</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="H14" s="12">
-        <v>6974</v>
+        <v>63455</v>
       </c>
       <c r="I14" s="11">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="J14" s="11"/>
+        <v>0.104</v>
+      </c>
+      <c r="J14" s="11">
+        <f t="shared" si="0"/>
+        <v>0.104</v>
+      </c>
       <c r="K14" s="13" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="L14" s="11" t="s">
         <v>27</v>
@@ -2213,32 +2306,35 @@
     </row>
     <row r="15" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>34</v>
+        <v>153</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="H15" s="12">
-        <v>26890</v>
+        <v>7290</v>
       </c>
       <c r="I15" s="11">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="J15" s="11"/>
+        <v>0.39</v>
+      </c>
+      <c r="J15" s="11">
+        <f t="shared" si="0"/>
+        <v>1.56</v>
+      </c>
       <c r="K15" s="13" t="s">
-        <v>35</v>
+        <v>155</v>
       </c>
       <c r="L15" s="11" t="s">
         <v>27</v>
@@ -2249,13 +2345,13 @@
         <v>1</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>166</v>
@@ -2264,12 +2360,15 @@
         <v>167</v>
       </c>
       <c r="H16" s="12">
-        <v>247696</v>
+        <v>6974</v>
       </c>
       <c r="I16" s="11">
-        <v>0.156</v>
-      </c>
-      <c r="J16" s="11"/>
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="J16" s="11">
+        <f t="shared" si="0"/>
+        <v>0.42899999999999999</v>
+      </c>
       <c r="K16" s="13" t="s">
         <v>168</v>
       </c>
@@ -2279,32 +2378,35 @@
     </row>
     <row r="17" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="15">
-        <v>2</v>
-      </c>
-      <c r="C17" s="16">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>117</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>171</v>
+        <v>33</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="H17" s="12">
-        <v>88248</v>
+        <v>26890</v>
       </c>
       <c r="I17" s="11">
-        <v>0.104</v>
-      </c>
-      <c r="J17" s="11"/>
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="J17" s="11">
+        <f t="shared" si="0"/>
+        <v>0.35099999999999998</v>
+      </c>
       <c r="K17" s="13" t="s">
-        <v>172</v>
+        <v>35</v>
       </c>
       <c r="L17" s="11" t="s">
         <v>27</v>
@@ -2315,29 +2417,32 @@
         <v>1</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>40</v>
+        <v>121</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>157</v>
       </c>
       <c r="H18" s="12">
-        <v>5517</v>
+        <v>247696</v>
       </c>
       <c r="I18" s="11">
-        <v>1.21</v>
-      </c>
-      <c r="J18" s="11"/>
+        <v>0.156</v>
+      </c>
+      <c r="J18" s="11">
+        <f t="shared" si="0"/>
+        <v>0.156</v>
+      </c>
       <c r="K18" s="13" t="s">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="L18" s="11" t="s">
         <v>27</v>
@@ -2345,32 +2450,35 @@
     </row>
     <row r="19" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="15">
-        <v>1</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>124</v>
+        <v>4</v>
+      </c>
+      <c r="C19" s="16">
+        <v>150</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>54</v>
+        <v>180</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="H19" s="12">
-        <v>3773</v>
+        <v>29791</v>
       </c>
       <c r="I19" s="11">
-        <v>1.91</v>
-      </c>
-      <c r="J19" s="11"/>
+        <v>0.104</v>
+      </c>
+      <c r="J19" s="11">
+        <f>B19*I19</f>
+        <v>0.41599999999999998</v>
+      </c>
       <c r="K19" s="13" t="s">
-        <v>55</v>
+        <v>183</v>
       </c>
       <c r="L19" s="11" t="s">
         <v>27</v>
@@ -2381,29 +2489,32 @@
         <v>1</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H20" s="12">
-        <v>9000</v>
+        <v>5517</v>
       </c>
       <c r="I20" s="11">
-        <v>0.70199999999999996</v>
-      </c>
-      <c r="J20" s="11"/>
+        <v>1.21</v>
+      </c>
+      <c r="J20" s="11">
+        <f t="shared" si="0"/>
+        <v>1.21</v>
+      </c>
       <c r="K20" s="13" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="L20" s="11" t="s">
         <v>27</v>
@@ -2414,29 +2525,32 @@
         <v>1</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="H21" s="12">
-        <v>1759</v>
+        <v>3773</v>
       </c>
       <c r="I21" s="11">
-        <v>2.54</v>
-      </c>
-      <c r="J21" s="11"/>
+        <v>1.91</v>
+      </c>
+      <c r="J21" s="11">
+        <f t="shared" si="0"/>
+        <v>1.91</v>
+      </c>
       <c r="K21" s="13" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="L21" s="11" t="s">
         <v>27</v>
@@ -2444,32 +2558,35 @@
     </row>
     <row r="22" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>141</v>
+        <v>185</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>186</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="H22" s="12">
-        <v>2109</v>
+        <v>35980</v>
       </c>
       <c r="I22" s="11">
-        <v>1.05</v>
-      </c>
-      <c r="J22" s="11"/>
+        <v>0.182</v>
+      </c>
+      <c r="J22" s="11">
+        <f t="shared" si="0"/>
+        <v>0.36399999999999999</v>
+      </c>
       <c r="K22" s="13" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="L22" s="11" t="s">
         <v>27</v>
@@ -2480,50 +2597,68 @@
         <v>1</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>131</v>
+        <v>189</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
+        <v>191</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" s="12">
+        <v>8296</v>
+      </c>
+      <c r="I23" s="11">
+        <v>1.98</v>
+      </c>
+      <c r="J23" s="11">
+        <f t="shared" si="0"/>
+        <v>1.98</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="24" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="15">
         <v>1</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>132</v>
+        <v>192</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>132</v>
+        <v>192</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>63</v>
+        <v>193</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>195</v>
       </c>
       <c r="H24" s="12">
-        <v>8296</v>
+        <v>1782</v>
       </c>
       <c r="I24" s="11">
-        <v>1.98</v>
-      </c>
-      <c r="J24" s="11"/>
+        <v>1.86</v>
+      </c>
+      <c r="J24" s="11">
+        <f t="shared" si="0"/>
+        <v>1.86</v>
+      </c>
       <c r="K24" s="13" t="s">
-        <v>64</v>
+        <v>196</v>
       </c>
       <c r="L24" s="11" t="s">
         <v>27</v>
@@ -2534,29 +2669,32 @@
         <v>1</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="H25" s="12">
-        <v>8296</v>
+        <v>1759</v>
       </c>
       <c r="I25" s="11">
-        <v>1.98</v>
-      </c>
-      <c r="J25" s="11"/>
+        <v>2.54</v>
+      </c>
+      <c r="J25" s="11">
+        <f t="shared" si="0"/>
+        <v>2.54</v>
+      </c>
       <c r="K25" s="13" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="L25" s="11" t="s">
         <v>27</v>
@@ -2564,104 +2702,217 @@
     </row>
     <row r="26" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="H26" s="12">
-        <v>23823</v>
-      </c>
-      <c r="I26" s="11">
-        <v>1.34</v>
-      </c>
-      <c r="J26" s="11"/>
-      <c r="K26" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="L26" s="11" t="s">
-        <v>27</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
     </row>
     <row r="27" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="15">
         <v>1</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>184</v>
+        <v>129</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="H27" s="12">
-        <v>51541</v>
+        <v>8296</v>
       </c>
       <c r="I27" s="11">
-        <v>0.13</v>
-      </c>
-      <c r="J27" s="11"/>
+        <v>1.98</v>
+      </c>
+      <c r="J27" s="11">
+        <f t="shared" si="0"/>
+        <v>1.98</v>
+      </c>
       <c r="K27" s="13" t="s">
-        <v>185</v>
+        <v>64</v>
       </c>
       <c r="L27" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="15">
+        <v>2</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" s="12">
+        <v>23823</v>
+      </c>
+      <c r="I28" s="11">
+        <v>1.34</v>
+      </c>
+      <c r="J28" s="11">
+        <f t="shared" si="0"/>
+        <v>2.68</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="15">
+        <v>1</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" s="12">
+        <v>8296</v>
+      </c>
+      <c r="I29" s="11">
+        <v>1.98</v>
+      </c>
+      <c r="J29" s="11">
+        <f t="shared" si="0"/>
+        <v>1.98</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="15">
+        <v>2</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="H30" s="12">
+        <v>13010</v>
+      </c>
+      <c r="I30" s="11">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="J30" s="11">
+        <f t="shared" si="0"/>
+        <v>1.6379999999999999</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I31" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="J31" s="22">
+        <f>SUM(J4:J30)</f>
+        <v>24.771999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:L2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K4" r:id="rId1"/>
-    <hyperlink ref="K15" r:id="rId2"/>
-    <hyperlink ref="K18" r:id="rId3"/>
-    <hyperlink ref="K19" r:id="rId4"/>
-    <hyperlink ref="K20" r:id="rId5"/>
-    <hyperlink ref="K21" r:id="rId6"/>
-    <hyperlink ref="K26" r:id="rId7"/>
-    <hyperlink ref="K25" r:id="rId8"/>
-    <hyperlink ref="K24" r:id="rId9"/>
-    <hyperlink ref="K22" r:id="rId10"/>
-    <hyperlink ref="K27" r:id="rId11"/>
-    <hyperlink ref="K5" r:id="rId12"/>
-    <hyperlink ref="K6" r:id="rId13"/>
-    <hyperlink ref="K7" r:id="rId14"/>
-    <hyperlink ref="K9" r:id="rId15"/>
-    <hyperlink ref="K10" r:id="rId16"/>
-    <hyperlink ref="K8" r:id="rId17"/>
-    <hyperlink ref="K13" r:id="rId18"/>
-    <hyperlink ref="K16" r:id="rId19"/>
-    <hyperlink ref="K17" r:id="rId20"/>
-    <hyperlink ref="K12" r:id="rId21"/>
-    <hyperlink ref="K11" r:id="rId22"/>
-    <hyperlink ref="K14" r:id="rId23"/>
+    <hyperlink ref="K17" r:id="rId2"/>
+    <hyperlink ref="K20" r:id="rId3"/>
+    <hyperlink ref="K21" r:id="rId4"/>
+    <hyperlink ref="K25" r:id="rId5"/>
+    <hyperlink ref="K28" r:id="rId6"/>
+    <hyperlink ref="K27" r:id="rId7"/>
+    <hyperlink ref="K5" r:id="rId8"/>
+    <hyperlink ref="K6" r:id="rId9"/>
+    <hyperlink ref="K7" r:id="rId10"/>
+    <hyperlink ref="K10" r:id="rId11"/>
+    <hyperlink ref="K12" r:id="rId12"/>
+    <hyperlink ref="K8" r:id="rId13"/>
+    <hyperlink ref="K15" r:id="rId14"/>
+    <hyperlink ref="K18" r:id="rId15"/>
+    <hyperlink ref="K14" r:id="rId16"/>
+    <hyperlink ref="K13" r:id="rId17"/>
+    <hyperlink ref="K16" r:id="rId18"/>
+    <hyperlink ref="K9" r:id="rId19"/>
+    <hyperlink ref="K11" r:id="rId20"/>
+    <hyperlink ref="K19" r:id="rId21"/>
+    <hyperlink ref="K22" r:id="rId22"/>
+    <hyperlink ref="K23" r:id="rId23"/>
+    <hyperlink ref="K24" r:id="rId24"/>
+    <hyperlink ref="K29" r:id="rId25"/>
+    <hyperlink ref="K30" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId24"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId27"/>
 </worksheet>
 </file>
 
